--- a/03_datos_limpios/grupos_por_estado_2022.xlsx
+++ b/03_datos_limpios/grupos_por_estado_2022.xlsx
@@ -1,116 +1,106 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\socan\Documents\GitHub\monitor_ppd\03_datos_limpios\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C610E8A-6221-4893-BD9E-E5FF323E8657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$B$1</definedName>
-  </definedNames>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
-    <t>estado</t>
-  </si>
-  <si>
-    <t>total_grupos</t>
-  </si>
-  <si>
-    <t>Aguascalientes-01</t>
-  </si>
-  <si>
-    <t>Baja California-02</t>
-  </si>
-  <si>
-    <t>Baja California Sur-03</t>
-  </si>
-  <si>
-    <t>Campeche-04</t>
-  </si>
-  <si>
-    <t>Chiapas-07</t>
-  </si>
-  <si>
-    <t>Chihuahua-08</t>
-  </si>
-  <si>
-    <t>Ciudad de México-09</t>
-  </si>
-  <si>
-    <t>Coahuila-05</t>
-  </si>
-  <si>
-    <t>Guanajuato-11</t>
-  </si>
-  <si>
-    <t>Guerrero-12</t>
-  </si>
-  <si>
-    <t>Hidalgo-13</t>
-  </si>
-  <si>
-    <t>Jalisco-14</t>
-  </si>
-  <si>
-    <t>Michoacán-16</t>
-  </si>
-  <si>
-    <t>Morelos-17</t>
-  </si>
-  <si>
-    <t>Nayarit-18</t>
-  </si>
-  <si>
-    <t>Nuevo León-19</t>
-  </si>
-  <si>
-    <t>Puebla-21</t>
-  </si>
-  <si>
-    <t>Querétaro-22</t>
-  </si>
-  <si>
-    <t>Quintana Roo-23</t>
-  </si>
-  <si>
-    <t>San Luis Potosí-24</t>
-  </si>
-  <si>
-    <t>Sinaloa-25</t>
-  </si>
-  <si>
-    <t>Sonora-26</t>
-  </si>
-  <si>
-    <t>Tamaulipas-28</t>
-  </si>
-  <si>
-    <t>Veracruz-30</t>
-  </si>
-  <si>
-    <t>Zacatecas-32</t>
+    <t xml:space="preserve">estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total_grupos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguascalientes-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baja California-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baja California Sur-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeche-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiapas-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chihuahua-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciudad de México-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colima-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durango-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado de México-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guanajuato-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guerrero-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalisco-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michoacán-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morelos-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nayarit-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuevo León-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puebla-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quintana Roo-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Luis Potosí-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinaloa-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonora-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabasco-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamaulipas-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veracruz-30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -146,15 +136,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -436,16 +417,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,213 +432,208 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14">
+      <c r="B25" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="26">
+      <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="B26" t="n">
         <v>6</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
-      <sortCondition descending="1" ref="B1"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>